--- a/statistics/HistoricalDistanceData/historical_distance/Q53561433-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q53561433-en.xlsx
@@ -31,43 +31,43 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Seven found dead at rural property</t>
+  </si>
+  <si>
     <t>Margaret River murder-suicide: Peter Miles's heartache blamed for unspeakable violence</t>
   </si>
   <si>
     <t>Osmington, Australia, shooting: Peter Miles planned killings, father says</t>
   </si>
   <si>
-    <t>Seven found dead at rural property</t>
-  </si>
-  <si>
     <t>Osmington police investigation will go on for months: Commissioner</t>
   </si>
   <si>
+    <t>2018-05-11T02:35:00UTC</t>
+  </si>
+  <si>
     <t>2018-05-13T18:53:22UTC</t>
   </si>
   <si>
     <t>2018-05-13T18:09:18UTC</t>
   </si>
   <si>
-    <t>2018-05-11T02:35:00UTC</t>
-  </si>
-  <si>
     <t>2018-05-17T03:19:54UTC</t>
   </si>
   <si>
+    <t>day_0</t>
+  </si>
+  <si>
     <t>day_2_to_30</t>
   </si>
   <si>
-    <t>day_0</t>
+    <t>http://www.news.com.au/national/western-australia/seven-feared-dead-in-mass-tragedy-in-western-australia/news-story/77d88b0ab55d72537d8861cdd0ce544a</t>
   </si>
   <si>
     <t>http://www.abc.net.au/news/2018-05-14/margaret-river-murder-suicide-peter-miles-pain-behind-killings/9756918</t>
   </si>
   <si>
     <t>https://www.washingtonpost.com/news/worldviews/wp/2018/05/13/father-of-children-killed-in-australia-mass-shooting-says-their-grandfather-planned-the-attack/</t>
-  </si>
-  <si>
-    <t>http://www.news.com.au/national/western-australia/seven-feared-dead-in-mass-tragedy-in-western-australia/news-story/77d88b0ab55d72537d8861cdd0ce544a</t>
   </si>
   <si>
     <t>https://www.canberratimes.com.au/national/western-australia/osmington-police-investigation-will-go-on-for-months-commissioner-20180517-p4zfv0.html</t>
@@ -472,7 +472,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -492,7 +492,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
@@ -506,7 +506,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -526,7 +526,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
